--- a/testdata/logindata.xlsx
+++ b/testdata/logindata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavan\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\opencartPlaywrightPythonFramework\opencartPlaywrightPythonFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2338C232-9E9F-4E2C-BA76-8CB052921956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9A6722-4F32-488F-A613-763FC20A100E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16354" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{DD2D5C5F-8E6D-49C6-975C-904030A5775C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD2D5C5F-8E6D-49C6-975C-904030A5775C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Valid login</t>
   </si>
   <si>
-    <t>pavanol@abc.com</t>
-  </si>
-  <si>
-    <t>test@123</t>
-  </si>
-  <si>
     <t>success</t>
   </si>
   <si>
@@ -70,16 +64,30 @@
   </si>
   <si>
     <t>failure</t>
+  </si>
+  <si>
+    <t>aswinikokka@gmail.com</t>
+  </si>
+  <si>
+    <t>aswini@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,14 +125,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,17 +451,17 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="4" max="4" width="8.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,35 +475,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F9389181-5C28-4F42-93CD-B2AC43C203EB}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{E4B42890-D1B7-49D5-82C4-6A65F73530EC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>